--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_GND_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_GND_2020.xlsx
@@ -1483,10 +1483,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-88.7146</v>
+        <v>-88.4939</v>
       </c>
       <c r="B2" t="n">
-        <v>-88.5002</v>
+        <v>-88.4872</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30.1144</v>
+        <v>30.3052</v>
       </c>
       <c r="B3" t="n">
-        <v>30.4234</v>
+        <v>30.3111</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-88.1617</v>
+        <v>-88.3826</v>
       </c>
       <c r="B4" t="n">
-        <v>-88.3866</v>
+        <v>-88.3894</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30.6312</v>
+        <v>30.4405</v>
       </c>
       <c r="B5" t="n">
-        <v>30.3154</v>
+        <v>30.4347</v>
       </c>
       <c r="C5" t="s">
         <v>124</v>

--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_GND_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_GND_2020.xlsx
@@ -1483,10 +1483,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-88.4939</v>
+        <v>-88.5279</v>
       </c>
       <c r="B2" t="n">
-        <v>-88.4872</v>
+        <v>-88.5061</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30.3052</v>
+        <v>30.2944</v>
       </c>
       <c r="B3" t="n">
-        <v>30.3111</v>
+        <v>30.3134</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-88.3826</v>
+        <v>-88.3467</v>
       </c>
       <c r="B4" t="n">
-        <v>-88.3894</v>
+        <v>-88.3687</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30.4405</v>
+        <v>30.451</v>
       </c>
       <c r="B5" t="n">
-        <v>30.4347</v>
+        <v>30.4321</v>
       </c>
       <c r="C5" t="s">
         <v>124</v>
